--- a/项目管理/进度计划/Demo-里程碑10/里程碑10-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑10/里程碑10-周版本.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="20660" tabRatio="500"/>
+    <workbookView xWindow="41580" yWindow="920" windowWidth="38400" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20160330" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160330'!$A$1:$P$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20160330'!$A$1:$P$189</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="453">
   <si>
     <t>类别</t>
   </si>
@@ -2011,10 +2011,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>小飞，帅帅</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
@@ -2802,25 +2798,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第1，3章副本修改-复查bug</t>
-    <rPh sb="0" eb="1">
-      <t>di</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fu'b</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiu'gai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'cha</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-3019</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2979,10 +2956,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>等级开放功能主界面 特效制作（三方后拆分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-3034</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3050,6 +3023,123 @@
   </si>
   <si>
     <t>MG-3046</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM修改-公会频道信息处理</t>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pin'dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会-任务奖励显示调整，红点</t>
+    <rPh sb="0" eb="1">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ren'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hong'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-3048</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-3047</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级开放功能主界面 特效制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-3049</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻碍</t>
+    <rPh sb="0" eb="1">
+      <t>zu'ai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5，安卓有问题</t>
+    <rPh sb="3" eb="4">
+      <t>an'zhuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测完</t>
+    <rPh sb="0" eb="1">
+      <t>ce'wan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1，2章副本修改-复查bug</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等策划</t>
+    <rPh sb="0" eb="1">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ce'hua</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3429,18 +3519,7 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -4012,11 +4091,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P344"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P346"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -4098,7 +4178,10 @@
         <v>192</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4107,7 +4190,7 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
@@ -4116,7 +4199,10 @@
         <v>192</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="L3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4134,7 +4220,10 @@
         <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="L4" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4152,10 +4241,13 @@
         <v>192</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="L5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>41</v>
@@ -4170,10 +4262,10 @@
         <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" t="s">
         <v>41</v>
@@ -4188,16 +4280,16 @@
         <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
         <v>242</v>
@@ -4206,10 +4298,10 @@
         <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" t="s">
         <v>41</v>
@@ -4224,16 +4316,16 @@
         <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
         <v>179</v>
@@ -4242,10 +4334,10 @@
         <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" t="s">
         <v>41</v>
@@ -4257,10 +4349,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>40</v>
@@ -4281,13 +4373,13 @@
         <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
         <v>41</v>
@@ -4305,7 +4397,13 @@
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="I14" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4326,7 +4424,10 @@
         <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="L15" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4347,10 +4448,13 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="L16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" t="s">
         <v>41</v>
@@ -4368,10 +4472,13 @@
         <v>0.5</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="L17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" t="s">
         <v>41</v>
@@ -4389,16 +4496,16 @@
         <v>0.5</v>
       </c>
       <c r="H18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
         <v>179</v>
@@ -4410,10 +4517,10 @@
         <v>0.5</v>
       </c>
       <c r="H19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" t="s">
         <v>41</v>
@@ -4431,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>41</v>
@@ -4443,10 +4550,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>66</v>
@@ -4464,10 +4571,13 @@
         <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="L23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" t="s">
         <v>41</v>
@@ -4485,10 +4595,13 @@
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="L24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" t="s">
         <v>41</v>
@@ -4506,10 +4619,13 @@
         <v>0.25</v>
       </c>
       <c r="H25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" t="s">
         <v>41</v>
@@ -4524,10 +4640,10 @@
         <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>41</v>
@@ -4542,16 +4658,16 @@
         <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" t="s">
         <v>65</v>
@@ -4569,10 +4685,10 @@
         <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>41</v>
@@ -4587,10 +4703,10 @@
         <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
         <v>41</v>
@@ -4605,10 +4721,10 @@
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>41</v>
@@ -4623,10 +4739,10 @@
         <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>41</v>
@@ -4644,10 +4760,10 @@
         <v>0.25</v>
       </c>
       <c r="H33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
         <v>41</v>
@@ -4662,10 +4778,10 @@
         <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>41</v>
@@ -4680,13 +4796,13 @@
         <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" t="s">
         <v>73</v>
@@ -4695,7 +4811,7 @@
         <v>41</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" t="s">
         <v>242</v>
@@ -4707,19 +4823,19 @@
         <v>0.1</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
@@ -4728,10 +4844,13 @@
         <v>192</v>
       </c>
       <c r="H38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="I38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
         <v>41</v>
@@ -4749,16 +4868,16 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E40" t="s">
         <v>77</v>
@@ -4770,10 +4889,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>41</v>
@@ -4791,16 +4910,16 @@
         <v>0.5</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E42" t="s">
         <v>77</v>
@@ -4812,16 +4931,16 @@
         <v>0.5</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" t="s">
         <v>77</v>
@@ -4833,16 +4952,16 @@
         <v>1</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E44" t="s">
         <v>185</v>
@@ -4854,16 +4973,16 @@
         <v>0.5</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
@@ -4875,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" t="s">
         <v>41</v>
@@ -4896,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="C47" t="s">
         <v>52</v>
@@ -4912,10 +5031,10 @@
       </c>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
         <v>79</v>
@@ -4933,7 +5052,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="C50" t="s">
         <v>41</v>
@@ -4948,13 +5067,13 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="C51" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E51" t="s">
         <v>186</v>
@@ -4964,38 +5083,41 @@
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="K51" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="C52" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52" t="s">
         <v>248</v>
-      </c>
-      <c r="E52" t="s">
-        <v>249</v>
       </c>
       <c r="F52" t="s">
         <v>180</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="C53" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E53" t="s">
         <v>77</v>
@@ -5007,16 +5129,16 @@
         <v>1</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="C54" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E54" t="s">
         <v>77</v>
@@ -5028,16 +5150,16 @@
         <v>1</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="C55" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E55" t="s">
         <v>77</v>
@@ -5049,32 +5171,32 @@
         <v>1</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="C56" t="s">
         <v>52</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" t="s">
         <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>16</v>
       </c>
@@ -5099,11 +5221,17 @@
       <c r="H58" s="30" t="s">
         <v>225</v>
       </c>
+      <c r="I58" s="30" t="s">
+        <v>389</v>
+      </c>
       <c r="K58" s="30" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="30" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="30" t="s">
         <v>41</v>
       </c>
@@ -5123,10 +5251,13 @@
         <v>154</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="C60" s="30" t="s">
         <v>41</v>
@@ -5141,10 +5272,10 @@
         <v>68</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="C61" s="30" t="s">
         <v>41</v>
@@ -5164,17 +5295,20 @@
       <c r="H61" s="30" t="s">
         <v>124</v>
       </c>
+      <c r="I61" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="K61" s="30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="C62" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>47</v>
@@ -5183,10 +5317,10 @@
         <v>68</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="C63" s="30" t="s">
         <v>41</v>
@@ -5207,94 +5341,94 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="C64" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>57</v>
+        <v>441</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>68</v>
+        <v>182</v>
+      </c>
+      <c r="G64" s="30">
+        <v>1</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="C65" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="30">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="H65" s="30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="C66" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G66" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="30" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="C67" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G67" s="30">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H67" s="30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="C68" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>53</v>
+        <v>335</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>49</v>
@@ -5303,112 +5437,118 @@
         <v>182</v>
       </c>
       <c r="G68" s="30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="C69" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>68</v>
       </c>
+      <c r="G69" s="30">
+        <v>0.5</v>
+      </c>
       <c r="H69" s="30" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
+      <c r="C70" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="D70" s="30" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="30">
+        <v>1</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="C71" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F71" s="30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="C72" s="30" t="s">
-        <v>41</v>
-      </c>
+      <c r="G71" s="30">
+        <v>1</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
       <c r="D72" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="C73" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
       <c r="C74" s="30" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="30" t="s">
         <v>68</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31"/>
       <c r="C75" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>49</v>
@@ -5417,237 +5557,244 @@
         <v>68</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31"/>
       <c r="C76" s="30" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31"/>
       <c r="C77" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="I77" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31"/>
       <c r="C78" s="30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H78" s="30" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="C79" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="31"/>
+      <c r="C80" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D80" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31"/>
+      <c r="C81" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="30" t="s">
+      <c r="E81" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-    </row>
-    <row r="81" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="30" t="s">
+    <row r="82" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="31"/>
+    </row>
+    <row r="83" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="31"/>
+      <c r="B83" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="C83" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="30">
+        <v>3</v>
+      </c>
+      <c r="H83" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="30">
-        <v>3</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="C82" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="30" t="s">
+    </row>
+    <row r="84" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31"/>
+      <c r="C84" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="E82" s="30" t="s">
+      <c r="E84" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-    </row>
-    <row r="84" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="30" t="s">
+    <row r="85" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+    </row>
+    <row r="86" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="C86" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E86" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F86" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="G84" s="30">
+      <c r="G86" s="30">
         <v>0.5</v>
       </c>
-      <c r="H84" s="30" t="s">
+      <c r="H86" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="I84" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="K84" s="30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="C85" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G85" s="30">
-        <v>2</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="30" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="C86" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G86" s="30">
-        <v>2</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K86" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
       <c r="C87" s="30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>63</v>
+        <v>365</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>68</v>
+        <v>180</v>
+      </c>
+      <c r="G87" s="30">
+        <v>2</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="30" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
       <c r="C88" s="30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="E88" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G88" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-    </row>
-    <row r="90" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="C89" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
-      <c r="B90" s="30" t="s">
-        <v>216</v>
-      </c>
       <c r="C90" s="30" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="E90" s="30" t="s">
         <v>61</v>
@@ -5656,166 +5803,166 @@
         <v>68</v>
       </c>
       <c r="G90" s="30">
-        <v>4</v>
-      </c>
-      <c r="H90" s="30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="C91" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+    </row>
+    <row r="92" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" s="30" t="s">
         <v>61</v>
-      </c>
-      <c r="F91" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="30">
-        <v>1</v>
-      </c>
-      <c r="H91" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="C92" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>68</v>
       </c>
       <c r="G92" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
       <c r="C93" s="30" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="F93" s="30" t="s">
         <v>68</v>
       </c>
+      <c r="G93" s="30">
+        <v>1</v>
+      </c>
       <c r="H93" s="30" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
       <c r="C94" s="30" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>215</v>
+        <v>355</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="F94" s="30" t="s">
         <v>68</v>
       </c>
+      <c r="G94" s="30">
+        <v>1</v>
+      </c>
       <c r="H94" s="30" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="29"/>
+      <c r="C95" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="29"/>
+      <c r="C96" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>229</v>
       </c>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
         <v>95</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>230</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
-      </c>
-      <c r="G97">
-        <v>0.1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="C98" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" t="s">
-        <v>96</v>
-      </c>
-      <c r="E98" t="s">
-        <v>231</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-      <c r="G98">
-        <v>0.1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="C99" t="s">
-        <v>41</v>
-      </c>
-      <c r="D99" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>231</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
       </c>
       <c r="G99">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H99" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+        <v>360</v>
+      </c>
+      <c r="I99" t="s">
+        <v>389</v>
+      </c>
+      <c r="L99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="C100" t="s">
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
         <v>231</v>
@@ -5827,61 +5974,73 @@
         <v>0.1</v>
       </c>
       <c r="H100" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="L100" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G101">
         <v>0.25</v>
       </c>
       <c r="H101" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+      <c r="I101" t="s">
+        <v>389</v>
+      </c>
+      <c r="L101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="C102" t="s">
         <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="E102" t="s">
         <v>231</v>
       </c>
       <c r="F102" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G102">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H102" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="L102" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
-        <v>369</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s">
         <v>180</v>
@@ -5890,526 +6049,541 @@
         <v>0.25</v>
       </c>
       <c r="H103" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" t="s">
+        <v>231</v>
+      </c>
+      <c r="F104" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104">
+        <v>0.25</v>
+      </c>
+      <c r="H104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" t="s">
-        <v>100</v>
-      </c>
       <c r="C105" t="s">
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="E105" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="F105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G105">
         <v>0.25</v>
       </c>
       <c r="H105" t="s">
-        <v>374</v>
-      </c>
-      <c r="I105" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="C106" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" t="s">
-        <v>108</v>
-      </c>
-      <c r="E106" t="s">
+    </row>
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" t="s">
         <v>231</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>181</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <v>0.25</v>
       </c>
-      <c r="H106" t="s">
-        <v>376</v>
-      </c>
-      <c r="I106" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="C107" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" t="s">
-        <v>230</v>
-      </c>
-      <c r="F107" t="s">
-        <v>192</v>
-      </c>
-      <c r="G107">
-        <v>0.5</v>
-      </c>
       <c r="H107" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="I107" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="C108" t="s">
         <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G108">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H108" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="I108" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="C109" t="s">
         <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
         <v>230</v>
       </c>
       <c r="F109" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G109">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="L109" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="C110" t="s">
         <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F110" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G110">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E111" t="s">
         <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G111">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H111" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="E112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="G112">
         <v>0.25</v>
       </c>
       <c r="H112" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="F113" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>0.1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="C114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" t="s">
+        <v>68</v>
+      </c>
+      <c r="G114">
+        <v>0.25</v>
+      </c>
+      <c r="H114" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="C115" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="E114" s="41" t="s">
+      <c r="D115" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" t="s">
+        <v>252</v>
+      </c>
+      <c r="F115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5"/>
+      <c r="C116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F116" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G116" s="15">
         <v>1</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H116" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" t="s">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" t="s">
         <v>101</v>
       </c>
-      <c r="C116" t="s">
-        <v>41</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D118" t="s">
         <v>115</v>
-      </c>
-      <c r="E116" t="s">
-        <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>181</v>
-      </c>
-      <c r="G116">
-        <v>0.5</v>
-      </c>
-      <c r="H116" t="s">
-        <v>389</v>
-      </c>
-      <c r="K116" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="C117" t="s">
-        <v>41</v>
-      </c>
-      <c r="D117" t="s">
-        <v>121</v>
-      </c>
-      <c r="E117" t="s">
-        <v>230</v>
-      </c>
-      <c r="F117" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="C118" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" t="s">
-        <v>104</v>
       </c>
       <c r="E118" t="s">
         <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="I118" t="s">
+        <v>228</v>
+      </c>
+      <c r="K118" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="C119" t="s">
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E119" t="s">
         <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G119">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="L119" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="C120" t="s">
         <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E120" t="s">
         <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="L120" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="C121" t="s">
         <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="C122" t="s">
         <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G122">
         <v>0.5</v>
       </c>
       <c r="H122" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" t="s">
+        <v>182</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
       <c r="C124" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="14" t="s">
-        <v>398</v>
+      <c r="D124" t="s">
+        <v>106</v>
       </c>
       <c r="E124" t="s">
         <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="I124" t="s">
-        <v>228</v>
-      </c>
-      <c r="K124" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="C125" t="s">
-        <v>41</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E125" t="s">
-        <v>230</v>
-      </c>
-      <c r="F125" t="s">
-        <v>68</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="C126" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" t="s">
-        <v>401</v>
       </c>
       <c r="E126" t="s">
         <v>230</v>
       </c>
       <c r="F126" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G126">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="I126" t="s">
+        <v>228</v>
+      </c>
+      <c r="K126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="C127" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>274</v>
+        <v>451</v>
       </c>
       <c r="E127" t="s">
         <v>230</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
       <c r="C128" t="s">
         <v>41</v>
       </c>
-      <c r="D128" s="14" t="s">
-        <v>111</v>
+      <c r="D128" t="s">
+        <v>399</v>
       </c>
       <c r="E128" t="s">
         <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G128">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H128" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="L128" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="C129" t="s">
         <v>41</v>
       </c>
-      <c r="D129" t="s">
-        <v>112</v>
+      <c r="D129" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="G129">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="C130" t="s">
-        <v>52</v>
-      </c>
-      <c r="D130" t="s">
-        <v>113</v>
+        <v>41</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="E130" t="s">
         <v>230</v>
@@ -6418,46 +6592,61 @@
         <v>68</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
         <v>68</v>
       </c>
       <c r="G131">
+        <v>1.5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132">
         <v>1</v>
       </c>
-      <c r="H131" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" t="s">
-        <v>79</v>
-      </c>
+      <c r="H132" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5"/>
       <c r="C133" t="s">
         <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="E133" t="s">
         <v>230</v>
@@ -6466,169 +6655,157 @@
         <v>68</v>
       </c>
       <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" t="s">
+        <v>406</v>
+      </c>
+      <c r="E135" t="s">
+        <v>230</v>
+      </c>
+      <c r="F135" t="s">
+        <v>68</v>
+      </c>
+      <c r="G135">
         <v>0.5</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H135" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="C136" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" t="s">
+        <v>408</v>
+      </c>
+      <c r="E136" t="s">
+        <v>249</v>
+      </c>
+      <c r="F136" t="s">
+        <v>180</v>
+      </c>
+      <c r="H136" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="C134" t="s">
-        <v>41</v>
-      </c>
-      <c r="D134" t="s">
-        <v>410</v>
-      </c>
-      <c r="E134" t="s">
-        <v>250</v>
-      </c>
-      <c r="F134" t="s">
-        <v>180</v>
-      </c>
-      <c r="H134" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B138" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D136" s="32" t="s">
+      <c r="C138" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E138" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="F136" s="33" t="s">
+      <c r="F138" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G138" s="34">
         <v>4</v>
       </c>
-      <c r="H136" s="34" t="s">
+      <c r="H138" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
-      <c r="C137" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="E137" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G137" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="H137" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="C138" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D138" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E138" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G138" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="31"/>
       <c r="C139" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>193</v>
+        <v>292</v>
+      </c>
+      <c r="E139" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G139" s="34">
+        <v>182</v>
+      </c>
+      <c r="G139" s="30">
         <v>0.5</v>
       </c>
-      <c r="H139" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="I139" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="K139" s="30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="31"/>
       <c r="C140" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>190</v>
+      <c r="D140" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E140" s="30" t="s">
+        <v>189</v>
       </c>
       <c r="F140" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G140" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H140" s="34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="31"/>
       <c r="C141" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>413</v>
+        <v>166</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="G141" s="34"/>
+        <v>181</v>
+      </c>
+      <c r="G141" s="34">
+        <v>0.5</v>
+      </c>
       <c r="H141" s="34" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="I141" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="K141" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31"/>
       <c r="C142" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="E142" s="33" t="s">
         <v>190</v>
@@ -6640,35 +6817,41 @@
         <v>0.5</v>
       </c>
       <c r="H142" s="34" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31"/>
       <c r="C143" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>163</v>
+        <v>411</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="G143" s="34"/>
       <c r="H143" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="I143" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L143" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31"/>
       <c r="C144" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="E144" s="33" t="s">
         <v>190</v>
@@ -6680,16 +6863,16 @@
         <v>0.5</v>
       </c>
       <c r="H144" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="31"/>
       <c r="C145" s="30" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="E145" s="33" t="s">
         <v>193</v>
@@ -6697,577 +6880,602 @@
       <c r="F145" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G145" s="34">
-        <v>0.5</v>
-      </c>
+      <c r="G145" s="34"/>
       <c r="H145" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31"/>
       <c r="C146" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D146" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E146" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F146" s="50"/>
-      <c r="G146" s="30">
+      <c r="D146" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G146" s="34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="C147" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="E147" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="F147" s="51"/>
-      <c r="G147" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
+      <c r="C147" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G147" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H147" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="31"/>
       <c r="C148" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D148" s="35" t="s">
-        <v>424</v>
+      <c r="D148" s="42" t="s">
+        <v>290</v>
       </c>
       <c r="E148" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F148" s="33" t="s">
-        <v>182</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F148" s="50"/>
       <c r="G148" s="30">
         <v>0.5</v>
       </c>
-      <c r="H148" s="30" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="C149" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D149" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="E149" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G149" s="30">
+    </row>
+    <row r="149" spans="1:11" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="43"/>
+      <c r="C149" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="E149" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F149" s="51"/>
+      <c r="G149" s="44">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="31"/>
       <c r="C150" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="42" t="s">
-        <v>292</v>
+      <c r="D150" s="35" t="s">
+        <v>422</v>
       </c>
       <c r="E150" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F150" s="52"/>
+        <v>194</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>182</v>
+      </c>
       <c r="G150" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="H150" s="30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="31"/>
       <c r="C151" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D151" s="42" t="s">
-        <v>255</v>
+      <c r="D151" s="35" t="s">
+        <v>424</v>
       </c>
       <c r="E151" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="F151" s="52"/>
+        <v>196</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="G151" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="31"/>
       <c r="C152" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="35" t="s">
-        <v>427</v>
+      <c r="D152" s="42" t="s">
+        <v>291</v>
       </c>
       <c r="E152" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>182</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F152" s="52"/>
       <c r="G152" s="30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
-      <c r="D153" s="35"/>
-    </row>
-    <row r="154" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E153" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F153" s="52"/>
+      <c r="G153" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="C154" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D154" s="30" t="s">
-        <v>82</v>
+      <c r="D154" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="E154" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F154" s="30" t="s">
-        <v>181</v>
+        <v>293</v>
+      </c>
+      <c r="F154" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="G154" s="30">
         <v>0.5</v>
       </c>
       <c r="H154" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="31"/>
+      <c r="D155" s="35"/>
+    </row>
+    <row r="156" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="31"/>
+      <c r="C156" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G156" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H156" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="K156" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="47"/>
+      <c r="C157" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F157" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G157" s="44">
+        <v>1</v>
+      </c>
+      <c r="H157" s="30" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="31"/>
+      <c r="C158" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G158" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="H158" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I158" s="30"/>
+    </row>
+    <row r="159" spans="1:11" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="31"/>
+      <c r="C159" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="E159" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F159" s="33"/>
+      <c r="G159" s="34">
+        <v>9</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I159" s="30"/>
+    </row>
+    <row r="160" spans="1:11" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="31"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+    </row>
+    <row r="161" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="31"/>
+      <c r="B161" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F161" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G161" s="30">
+        <v>1</v>
+      </c>
+      <c r="H161" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="K154" s="30" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="C155" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D155" s="44" t="s">
+    </row>
+    <row r="162" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="31"/>
+      <c r="C162" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D162" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="E155" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="F155" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="G155" s="44">
-        <v>1</v>
-      </c>
-      <c r="H155" s="30" t="s">
+      <c r="E162" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F162" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G162" s="30">
+        <v>5</v>
+      </c>
+      <c r="H162" s="30" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
-      <c r="C156" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D156" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="F156" s="33" t="s">
+    <row r="163" spans="1:12" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="31"/>
+      <c r="C163" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F163" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G156" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="H156" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="I156" s="30"/>
-    </row>
-    <row r="157" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
-      <c r="C157" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D157" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="F157" s="33"/>
-      <c r="G157" s="34">
-        <v>9</v>
-      </c>
-      <c r="H157" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="I157" s="30"/>
-    </row>
-    <row r="158" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="34"/>
-    </row>
-    <row r="159" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C159" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E159" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F159" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G159" s="30">
-        <v>1</v>
-      </c>
-      <c r="H159" s="30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="C160" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="E160" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F160" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="G160" s="30">
-        <v>5</v>
-      </c>
-      <c r="H160" s="30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="C161" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D161" s="32" t="s">
+      <c r="G163" s="34">
+        <v>2</v>
+      </c>
+      <c r="H163" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="E161" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F161" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G161" s="34">
-        <v>2</v>
-      </c>
-      <c r="H161" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="I161" s="30"/>
-    </row>
-    <row r="162" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
-    </row>
-    <row r="163" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
-      <c r="B163" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E163" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="F163" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G163" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I163" s="30"/>
+    </row>
+    <row r="164" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="31"/>
     </row>
-    <row r="165" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="31"/>
       <c r="B165" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E165" s="30" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F165" s="30" t="s">
         <v>191</v>
       </c>
       <c r="G165" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="31"/>
+    </row>
+    <row r="167" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="31"/>
+      <c r="B167" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E167" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F167" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G167" s="30">
         <v>0.5</v>
       </c>
-      <c r="H165" s="30" t="s">
+      <c r="H167" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="31"/>
+      <c r="C168" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E168" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F168" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="31"/>
+      <c r="C169" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E169" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G169" s="34">
+        <v>1</v>
+      </c>
+      <c r="H169" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I169" s="30"/>
+    </row>
+    <row r="170" spans="1:12" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="31"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="I170" s="30"/>
+    </row>
+    <row r="171" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29"/>
+      <c r="B171" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E171" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F171" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G171" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="H171" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="I171" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K171" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29"/>
+      <c r="C172" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="E172" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F172" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G172" s="30">
+        <v>1</v>
+      </c>
+      <c r="H172" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="I172" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K172" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="L172" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="29"/>
+      <c r="C173" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="30" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
-      <c r="C166" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="E166" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F166" s="30" t="s">
+      <c r="E173" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F173" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G173" s="30">
+        <v>1</v>
+      </c>
+      <c r="H173" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="L173" s="30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="29"/>
+      <c r="C174" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F174" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H166" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
-      <c r="C167" s="34" t="s">
+      <c r="H174" s="29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="29"/>
+      <c r="C175" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E175" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" s="29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="47"/>
+      <c r="C176" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D167" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="F167" s="33" t="s">
+      <c r="D176" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F176" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G167" s="34">
-        <v>1</v>
-      </c>
-      <c r="H167" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I167" s="30"/>
-    </row>
-    <row r="168" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="I168" s="30"/>
-    </row>
-    <row r="169" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
-      <c r="B169" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E169" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F169" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G169" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="H169" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="I169" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="K169" s="30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
-      <c r="C170" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D170" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="E170" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G170" s="30">
-        <v>1</v>
-      </c>
-      <c r="H170" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="K170" s="30" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
-      <c r="C171" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D171" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="E171" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F171" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="G171" s="30">
-        <v>1</v>
-      </c>
-      <c r="H171" s="36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
-      <c r="C172" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D172" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="E172" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F172" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H172" s="29" t="s">
+      <c r="G176" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="H176" s="44" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
-      <c r="C173" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="E173" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H173" s="29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="47"/>
-      <c r="C174" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="E174" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F174" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G174" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="H174" s="44" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="8"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-    </row>
-    <row r="177" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
-      <c r="B177" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="8"/>
-    </row>
-    <row r="178" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
       <c r="I178" s="9"/>
       <c r="J178" s="8"/>
-    </row>
-    <row r="179" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+    </row>
+    <row r="179" spans="1:16" s="7" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -7278,10 +7486,10 @@
       <c r="I179" s="9"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" s="7" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="10" t="s">
-        <v>23</v>
+      <c r="B180" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -7292,17 +7500,13 @@
       <c r="I180" s="9"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
+    <row r="181" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
       <c r="B181" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D181" t="s">
-        <v>169</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="8"/>
@@ -7310,12 +7514,13 @@
       <c r="I181" s="9"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
+      <c r="B182" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C182" s="2"/>
-      <c r="D182" t="s">
-        <v>170</v>
-      </c>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="8"/>
@@ -7323,12 +7528,16 @@
       <c r="I182" s="9"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="B183" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="D183" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -7337,53 +7546,52 @@
       <c r="I183" s="9"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
-    </row>
-    <row r="185" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J184" s="8"/>
+    </row>
+    <row r="185" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
       <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
-    </row>
-    <row r="186" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J185" s="8"/>
+    </row>
+    <row r="186" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7391,45 +7599,29 @@
       <c r="H187" s="2"/>
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-    </row>
-    <row r="188" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188"/>
+      <c r="D188" t="s">
+        <v>175</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
-      <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
-      <c r="N188" s="2"/>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-    </row>
-    <row r="189" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189" s="37">
-        <v>1</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>270</v>
-      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s">
+        <v>176</v>
+      </c>
+      <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -7445,15 +7637,9 @@
     <row r="190" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
-      <c r="C190" s="37">
-        <v>2</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="C190" s="2"/>
+      <c r="D190"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -7468,15 +7654,17 @@
     </row>
     <row r="191" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C191" s="37">
-        <v>3</v>
-      </c>
-      <c r="D191" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -7493,9 +7681,15 @@
     <row r="192" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192"/>
-      <c r="E192" s="2"/>
+      <c r="C192" s="37">
+        <v>2</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
@@ -7510,12 +7704,16 @@
     </row>
     <row r="193" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="37">
+        <v>3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -7528,76 +7726,70 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-      <c r="B194" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G194" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H194" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I194" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J194" s="13"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
     </row>
     <row r="195" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H195" s="20"/>
-      <c r="I195" s="22"/>
-      <c r="J195" s="13"/>
+      <c r="B195" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
-    </row>
-    <row r="196" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P195" s="2"/>
+    </row>
+    <row r="196" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="B196" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E196" s="23"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H196" s="23"/>
-      <c r="I196" s="22"/>
+      <c r="B196" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="J196" s="13"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -7607,23 +7799,17 @@
     </row>
     <row r="197" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-      <c r="B197" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="B197" s="20"/>
       <c r="C197" s="20"/>
-      <c r="D197" s="18" t="s">
-        <v>137</v>
+      <c r="D197" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="E197" s="20"/>
-      <c r="F197" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="F197" s="20"/>
       <c r="G197" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H197" s="20" t="s">
-        <v>266</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H197" s="20"/>
       <c r="I197" s="22"/>
       <c r="J197" s="13"/>
       <c r="K197" s="2"/>
@@ -7633,136 +7819,164 @@
       <c r="O197" s="2"/>
     </row>
     <row r="198" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="20" t="s">
+      <c r="A198" s="2"/>
+      <c r="B198" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198" s="23"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H198" s="23"/>
+      <c r="I198" s="22"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+    </row>
+    <row r="199" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+      <c r="B199" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199" s="20"/>
+      <c r="D199" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E199" s="20"/>
+      <c r="F199" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G199" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H199" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="I199" s="22"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+    </row>
+    <row r="200" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20" t="s">
+      <c r="C200" s="20"/>
+      <c r="D200" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E198" s="20"/>
-      <c r="F198" s="25">
+      <c r="E200" s="20"/>
+      <c r="F200" s="25">
         <v>42459</v>
       </c>
-      <c r="G198" s="21" t="s">
+      <c r="G200" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H198" s="20"/>
-      <c r="I198" s="22" t="s">
+      <c r="H200" s="20"/>
+      <c r="I200" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="J198" s="13"/>
-    </row>
-    <row r="199" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="13"/>
-    </row>
-    <row r="200" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E200" s="11"/>
-      <c r="F200" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G200" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
       <c r="J200" s="13"/>
     </row>
     <row r="201" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E201" s="11"/>
-      <c r="F201" s="27">
-        <v>42452</v>
-      </c>
+      <c r="F201" s="11"/>
       <c r="G201" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H201" s="11" t="s">
-        <v>266</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H201" s="11"/>
       <c r="I201" s="11"/>
       <c r="J201" s="13"/>
     </row>
     <row r="202" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E202" s="22"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E202" s="11"/>
       <c r="F202" s="27">
+        <v>42459</v>
+      </c>
+      <c r="G202" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="13"/>
+    </row>
+    <row r="203" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E203" s="11"/>
+      <c r="F203" s="27">
         <v>42452</v>
       </c>
-      <c r="G202" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="H202" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="I202" s="22"/>
-      <c r="J202" s="13"/>
-    </row>
-    <row r="203" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H203" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="I203" s="22"/>
+      <c r="G203" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I203" s="11"/>
       <c r="J203" s="13"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
+      <c r="D204" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="E204" s="22"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="22"/>
+      <c r="F204" s="27">
+        <v>42452</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H204" s="22" t="s">
+        <v>265</v>
+      </c>
       <c r="I204" s="22"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+      <c r="J204" s="13"/>
+    </row>
+    <row r="205" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
+      <c r="D205" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
+      <c r="G205" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H205" s="22" t="s">
+        <v>265</v>
+      </c>
       <c r="I205" s="22"/>
+      <c r="J205" s="13"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
@@ -7773,6 +7987,7 @@
       <c r="I206" s="22"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
@@ -7782,19 +7997,34 @@
       <c r="H207" s="22"/>
       <c r="I207" s="22"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="22"/>
+      <c r="H208" s="22"/>
+      <c r="I208" s="22"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="E209" s="22"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="22"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="22"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -8157,144 +8387,160 @@
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
     </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="7"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P173"/>
+  <autoFilter ref="A1:P189">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="D1"/>
+        <filter val="D2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I195:I1048576 I96 I129:I135 I99:I112 I1:I9 I11:I57 I90:I93 I115:I126 I60:I88 I169:I175 I137:I155">
-    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I197:I1048576 I98 I131:I137 I101:I114 I1:I9 I11:I57 I92:I95 I117:I128 I171:I177 I139:I157 I60:I90">
+    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="27" priority="47" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B180:F180 A193:F194 A195:A1048576 J195:XFD203 G177:XFD194 I176:XFD176 A177:F179 A176:C176 E181:F192 A180:A184 C181:C184 A185:C192 A96 D170:E170 D155:E155 A129:A135 A99:A112 A1:A9 A60 A73:A83 A91 A93 A86:A88 A115:A126 A11:A58 A64:A71 A62 A169:A175 A137:A155 H170:H173">
-    <cfRule type="cellIs" dxfId="27" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B182:F182 A195:F196 A197:A1048576 J197:XFD205 G179:XFD196 I178:XFD178 A179:F181 A178:C178 E183:F194 A182:A186 C183:C186 A187:C194 A98 D172:E172 D157:E157 A131:A137 A101:A114 A1:A9 A60 A93 A95 A88:A90 A117:A128 A11:A58 A62 A171:A177 A139:A157 H172:H175 A75:A85 A64:A73">
+    <cfRule type="cellIs" dxfId="26" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B181">
-    <cfRule type="cellIs" dxfId="26" priority="43" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B183">
+    <cfRule type="cellIs" dxfId="25" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="23" priority="38" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136 I158:I160 I162:I166">
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I136)))</formula>
+  <conditionalFormatting sqref="I138 I160:I162 I164:I168">
+    <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I136)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I138)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A136 A158:A160 A162:A166">
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A138 A160:A162 A164:A168">
+    <cfRule type="cellIs" dxfId="20" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I167:I168">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I167)))</formula>
+  <conditionalFormatting sqref="I169:I170">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I169)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I167)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I169)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I94">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I94)))</formula>
+  <conditionalFormatting sqref="I96">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I94)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I98 I127:I128 I113">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I97)))</formula>
+  <conditionalFormatting sqref="I99:I100 I129:I130 I115">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I97)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I99)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:A98 A127:A128 A113">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A99:A100 A129:A130 A115">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I114)))</formula>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I114)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I156">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I156)))</formula>
+  <conditionalFormatting sqref="I158">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I156)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I158)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I157">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I157)))</formula>
+  <conditionalFormatting sqref="I159">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I157)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I161">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I161)))</formula>
+  <conditionalFormatting sqref="I163">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I161)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C201:C1048576 C1:C131 C133:C175">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C203:C1048576 C135:C177 C1:C133">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F203:F1048576 F147:F152 F154:F174 F1:F145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F205:F1048576 F149:F154 F156:F176 F1:F147">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I201:I1048576 I90 I114 I161 I58:I59 I92 I174 I167:I169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I203:I1048576 I92 I116 I163 I58:I59 I94 I176 I169:I171">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B199:B1048576 B185:B194 B1:B15 B17:B26 B64:B71 B40:B42 B45:B49 B29:B37 B51:B52 B54:B58 B121:B128 B83:B85 B87:B88 B73:B81 B90:B117 B119 B60 B62 B173:B183 B130:B171">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B201:B1048576 B187:B196 B1:B15 B17:B26 B40:B42 B45:B49 B29:B37 B51:B52 B54:B58 B123:B130 B85:B87 B89:B90 B92:B119 B121 B60 B62 B175:B185 B132:B173 B64:B73 B75:B83">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I96:I113 I86:I88 I2:I57 I93 I91 I60:I83 I170:I173 I162:I166 I175 I115:I160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I98:I115 I88:I90 I2:I57 I95 I93 I117:I162 I172:I175 I164:I168 I177 I60:I85">
       <formula1>"完成,未完成,阻碍,取消"</formula1>
     </dataValidation>
   </dataValidations>
